--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\todo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E304EB-18C8-4FF0-BF99-FB0B8D0F841F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF94C986-10D1-4803-A22D-352C800C0102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,7 +57,86 @@
     <t>班次结束时间</t>
   </si>
   <si>
-    <t>ddfgbdbg</t>
+    <t>USER002</t>
+  </si>
+  <si>
+    <t>USER001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER003</t>
+  </si>
+  <si>
+    <t>USER004</t>
+  </si>
+  <si>
+    <t>USER005</t>
+  </si>
+  <si>
+    <t>USER006</t>
+  </si>
+  <si>
+    <t>USER007</t>
+  </si>
+  <si>
+    <t>USER008</t>
+  </si>
+  <si>
+    <t>USER009</t>
+  </si>
+  <si>
+    <t>USER010</t>
+  </si>
+  <si>
+    <t>USER011</t>
+  </si>
+  <si>
+    <t>USER012</t>
+  </si>
+  <si>
+    <t>USER013</t>
+  </si>
+  <si>
+    <t>USER014</t>
+  </si>
+  <si>
+    <t>USER015</t>
+  </si>
+  <si>
+    <t>USER016</t>
+  </si>
+  <si>
+    <t>USER017</t>
+  </si>
+  <si>
+    <t>USER018</t>
+  </si>
+  <si>
+    <t>USER019</t>
+  </si>
+  <si>
+    <t>USER020</t>
+  </si>
+  <si>
+    <t>USER021</t>
+  </si>
+  <si>
+    <t>USER022</t>
+  </si>
+  <si>
+    <t>USER023</t>
+  </si>
+  <si>
+    <t>USER024</t>
+  </si>
+  <si>
+    <t>USER025</t>
+  </si>
+  <si>
+    <t>USER026</t>
+  </si>
+  <si>
+    <t>USER027</t>
   </si>
 </sst>
 </file>
@@ -419,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,7 +531,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -486,7 +565,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -503,7 +582,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -520,7 +599,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -537,7 +616,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -554,7 +633,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -571,7 +650,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -588,7 +667,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -600,6 +679,312 @@
         <v>0.375</v>
       </c>
       <c r="E10" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45990</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45991</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45992</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45993</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45994</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45995</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45996</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45997</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45998</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45999</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>46000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>46001</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>46002</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>46003</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>46004</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>46005</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>46006</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>46007</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="5">
         <v>0.75</v>
       </c>
     </row>
